--- a/Liftais/Liftais/bin/Debug/Export_AIS/Журнал_посещений.xlsx
+++ b/Liftais/Liftais/bin/Debug/Export_AIS/Журнал_посещений.xlsx
@@ -14,7 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <x:si>
+    <x:t>Номер записи</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Номер посетителя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Событие</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Резидент</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата захода</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата выхода</x:t>
+  </x:si>
   <x:si>
     <x:t>test</x:t>
   </x:si>
@@ -22,7 +40,13 @@
     <x:t>Сергей Терпиловский</x:t>
   </x:si>
   <x:si>
-    <x:t>TESTT</x:t>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wdfff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gdgd</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -76,30 +100,23 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -402,7 +419,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G1"/>
+  <x:dimension ref="A1:G2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -419,54 +436,97 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="19.022622" customHeight="1">
       <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="1" t="n">
+      <x:c r="B1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="B2" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="n">
+      <x:c r="C2" s="0" t="n">
         <x:v>1143</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1" s="2">
+      <x:c r="D2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F2" s="2">
         <x:v>44885.8431365741</x:v>
       </x:c>
-      <x:c r="G1" s="2">
+      <x:c r="G2" s="2">
         <x:v>44885.8431828704</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="B3" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>1144</x:v>
+        <x:v>1143</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F3" s="3">
-        <x:v>44885.9151273148</x:v>
-      </x:c>
-      <x:c r="G3" s="3">
-        <x:v>44908.6043055556</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F3" s="2">
+        <x:v>44903.6252199074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="B4" s="0" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F4" s="2">
+        <x:v>44914.7392361111</x:v>
+      </x:c>
+      <x:c r="G4" s="2">
+        <x:v>44914.7393402778</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="B5" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>1143</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F5" s="3">
-        <x:v>44908.9888657407</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F5" s="2">
+        <x:v>44915.7292476852</x:v>
+      </x:c>
+      <x:c r="G5" s="2">
+        <x:v>44915.7294097222</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
